--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C475CB-3260-4142-BF77-80BDC49A8CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3E30D8-6880-4B2A-9403-613BAD9F339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3E30D8-6880-4B2A-9403-613BAD9F339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A1CDB5-4019-4437-B9A9-D30EDF67001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,92 +1789,113 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1882,60 +1903,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1946,12 +1913,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,82 +1924,121 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="184" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="181" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="189"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2766,10 +2766,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="177"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2777,10 +2777,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="177"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2788,10 +2788,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="177"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2805,10 +2805,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2822,10 +2822,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31">
@@ -2837,10 +2837,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="158"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2850,10 +2850,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2879,21 +2879,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="175"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2903,10 +2903,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="179"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2916,10 +2916,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2929,10 +2929,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2942,10 +2942,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="177"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2955,10 +2955,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="177"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2970,10 +2970,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="158"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2983,10 +2983,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="160"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2996,10 +2996,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="152"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3009,10 +3009,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3022,10 +3022,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3035,10 +3035,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="166"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3074,21 +3074,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="144"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3100,10 +3100,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3113,10 +3113,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3126,10 +3126,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="146"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3139,10 +3139,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="146"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3154,10 +3154,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="148"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3167,10 +3167,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="150"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3200,10 +3200,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="152"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3215,10 +3215,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="154"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3231,10 +3231,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="156"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3253,164 +3253,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="142"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="131" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="132" t="s">
+      <c r="E49" s="178"/>
+      <c r="F49" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="133"/>
+      <c r="G49" s="178"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="115"/>
-      <c r="B50" s="135" t="s">
+      <c r="A50" s="173"/>
+      <c r="B50" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="137"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="181"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="116"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="139"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="189"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="132" t="s">
+      <c r="C53" s="179"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="178"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="115"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="137"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="181"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="116"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="139"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="186"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="127"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="189"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117" t="s">
+      <c r="C57" s="176"/>
+      <c r="D57" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="119"/>
-      <c r="F57" s="117" t="s">
+      <c r="E57" s="176"/>
+      <c r="F57" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="119"/>
+      <c r="G57" s="176"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="115"/>
+      <c r="A58" s="173"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="121"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="192"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="115"/>
-      <c r="B59" s="129" t="s">
+      <c r="A59" s="173"/>
+      <c r="B59" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="122" t="s">
+      <c r="C59" s="184"/>
+      <c r="D59" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="124"/>
-      <c r="F59" s="123" t="s">
+      <c r="E59" s="194"/>
+      <c r="F59" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="124"/>
+      <c r="G59" s="194"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="115"/>
-      <c r="B60" s="131" t="s">
+      <c r="A60" s="173"/>
+      <c r="B60" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="117" t="s">
+      <c r="C60" s="179"/>
+      <c r="D60" s="178"/>
+      <c r="E60" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="118"/>
-      <c r="G60" s="119"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="176"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="115"/>
+      <c r="A61" s="173"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3419,121 +3419,63 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="116"/>
-      <c r="B62" s="129" t="s">
+      <c r="A62" s="174"/>
+      <c r="B62" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="122" t="s">
+      <c r="C62" s="190"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="194"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="117" t="s">
+      <c r="C63" s="196"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="118"/>
-      <c r="G63" s="119"/>
+      <c r="F63" s="196"/>
+      <c r="G63" s="176"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="115"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="192"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="116"/>
-      <c r="B65" s="122" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="122" t="s">
+      <c r="C65" s="195"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="123"/>
-      <c r="G65" s="124"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3547,12 +3489,70 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A1CDB5-4019-4437-B9A9-D30EDF67001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1453BCA1-7B85-42A1-8CAA-46CBFB753652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,11 +1789,218 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
@@ -1832,213 +2039,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="135" t="s">
+      <c r="C2" s="182"/>
+      <c r="D2" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2766,10 +2766,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="130"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2777,10 +2777,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2788,10 +2788,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="130"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2805,10 +2805,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2822,10 +2822,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="130"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31">
@@ -2837,10 +2837,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2850,10 +2850,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2879,21 +2879,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2903,10 +2903,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2916,10 +2916,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="130"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2929,10 +2929,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2942,10 +2942,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="130"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2955,10 +2955,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2970,10 +2970,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="115"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2983,10 +2983,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2996,10 +2996,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="147"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3009,10 +3009,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3022,10 +3022,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3035,10 +3035,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="155"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3074,21 +3074,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="151"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3100,10 +3100,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="151"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3113,10 +3113,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="151"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3126,10 +3126,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="163"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3139,10 +3139,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="163"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3154,10 +3154,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3167,10 +3167,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="167"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3200,10 +3200,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="147"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3215,10 +3215,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="169"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3231,10 +3231,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="171"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3253,164 +3253,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="159" t="s">
+      <c r="A48" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="142"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="175" t="s">
+      <c r="B49" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="177" t="s">
+      <c r="C49" s="119"/>
+      <c r="D49" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="179" t="s">
+      <c r="E49" s="133"/>
+      <c r="F49" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="178"/>
+      <c r="G49" s="133"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="173"/>
-      <c r="B50" s="180" t="s">
+      <c r="A50" s="115"/>
+      <c r="B50" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="181"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="137"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="174"/>
-      <c r="B51" s="183"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="186"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="139"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="187" t="s">
+      <c r="A52" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="189"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="179"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179" t="s">
+      <c r="C53" s="132"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="179"/>
-      <c r="G53" s="178"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="173"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="181"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="181"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="137"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="174"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="187" t="s">
+      <c r="A56" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="188"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="189"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="175" t="s">
+      <c r="B57" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="176"/>
-      <c r="D57" s="175" t="s">
+      <c r="C57" s="119"/>
+      <c r="D57" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="176"/>
-      <c r="F57" s="175" t="s">
+      <c r="E57" s="119"/>
+      <c r="F57" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="176"/>
+      <c r="G57" s="119"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="173"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="192"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="121"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="173"/>
-      <c r="B59" s="183" t="s">
+      <c r="A59" s="115"/>
+      <c r="B59" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="193" t="s">
+      <c r="C59" s="130"/>
+      <c r="D59" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="194"/>
-      <c r="F59" s="195" t="s">
+      <c r="E59" s="124"/>
+      <c r="F59" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="194"/>
+      <c r="G59" s="124"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="173"/>
-      <c r="B60" s="177" t="s">
+      <c r="A60" s="115"/>
+      <c r="B60" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="175" t="s">
+      <c r="C60" s="132"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="196"/>
-      <c r="G60" s="176"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="119"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="173"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3419,63 +3419,121 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="174"/>
-      <c r="B62" s="183" t="s">
+      <c r="A62" s="116"/>
+      <c r="B62" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="190"/>
-      <c r="D62" s="184"/>
-      <c r="E62" s="193" t="s">
+      <c r="C62" s="134"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="195"/>
-      <c r="G62" s="194"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="124"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="175" t="s">
+      <c r="B63" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="175" t="s">
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="196"/>
-      <c r="G63" s="176"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="119"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="173"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="197"/>
-      <c r="G64" s="192"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="174"/>
-      <c r="B65" s="193" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="193" t="s">
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="195"/>
-      <c r="G65" s="194"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3489,70 +3547,12 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1453BCA1-7B85-42A1-8CAA-46CBFB753652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEFE6881-70F4-4E0E-B87B-C4D0387D689F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB45099-08D4-4C73-A9C1-E763C9C91589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A4B5C5D-6DF6-464D-A557-03F40DBB9CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
+    <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="2" r:id="rId1"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB45099-08D4-4C73-A9C1-E763C9C91589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD73AC6-C156-44AA-BAFB-46E253FAB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
+    <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
   <sheets>
     <sheet name="IPC" sheetId="2" r:id="rId1"/>
@@ -1789,11 +1789,218 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
@@ -1832,213 +2039,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="135" t="s">
+      <c r="C2" s="182"/>
+      <c r="D2" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2764,10 +2764,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="130"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2775,10 +2775,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2786,10 +2786,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="130"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2801,10 +2801,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="130"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31">
         <v>5980</v>
@@ -2831,10 +2831,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2873,21 +2873,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2897,10 +2897,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2910,10 +2910,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="130"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2936,10 +2936,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="130"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="115"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2977,10 +2977,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="147"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3016,10 +3016,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3029,10 +3029,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="155"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3068,21 +3068,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="151"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3094,10 +3094,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="151"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="151"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3120,10 +3120,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="163"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3133,10 +3133,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="163"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="167"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3194,10 +3194,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="147"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="169"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3225,10 +3225,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="171"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3247,164 +3247,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="159" t="s">
+      <c r="A48" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="142"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="175" t="s">
+      <c r="B49" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="177" t="s">
+      <c r="C49" s="119"/>
+      <c r="D49" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="179" t="s">
+      <c r="E49" s="133"/>
+      <c r="F49" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="178"/>
+      <c r="G49" s="133"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="173"/>
-      <c r="B50" s="180" t="s">
+      <c r="A50" s="115"/>
+      <c r="B50" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="181"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="137"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="174"/>
-      <c r="B51" s="183"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="186"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="139"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="187" t="s">
+      <c r="A52" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="189"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="179"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179" t="s">
+      <c r="C53" s="132"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="179"/>
-      <c r="G53" s="178"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="173"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="181"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="181"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="137"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="174"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="187" t="s">
+      <c r="A56" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="188"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="189"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="175" t="s">
+      <c r="B57" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="176"/>
-      <c r="D57" s="175" t="s">
+      <c r="C57" s="119"/>
+      <c r="D57" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="176"/>
-      <c r="F57" s="175" t="s">
+      <c r="E57" s="119"/>
+      <c r="F57" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="176"/>
+      <c r="G57" s="119"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="173"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="192"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="121"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="173"/>
-      <c r="B59" s="183" t="s">
+      <c r="A59" s="115"/>
+      <c r="B59" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="193" t="s">
+      <c r="C59" s="130"/>
+      <c r="D59" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="194"/>
-      <c r="F59" s="195" t="s">
+      <c r="E59" s="124"/>
+      <c r="F59" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="194"/>
+      <c r="G59" s="124"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="173"/>
-      <c r="B60" s="177" t="s">
+      <c r="A60" s="115"/>
+      <c r="B60" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="175" t="s">
+      <c r="C60" s="132"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="196"/>
-      <c r="G60" s="176"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="119"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="173"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3413,63 +3413,121 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="174"/>
-      <c r="B62" s="183" t="s">
+      <c r="A62" s="116"/>
+      <c r="B62" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="190"/>
-      <c r="D62" s="184"/>
-      <c r="E62" s="193" t="s">
+      <c r="C62" s="134"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="195"/>
-      <c r="G62" s="194"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="124"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="175" t="s">
+      <c r="B63" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="175" t="s">
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="196"/>
-      <c r="G63" s="176"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="119"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="173"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="197"/>
-      <c r="G64" s="192"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="174"/>
-      <c r="B65" s="193" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="193" t="s">
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="195"/>
-      <c r="G65" s="194"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3483,70 +3541,12 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD73AC6-C156-44AA-BAFB-46E253FAB7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C365B414-10C0-408B-8DE7-D280DC1E9D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,92 +1789,113 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1882,60 +1903,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1946,12 +1913,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,82 +1924,121 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="184" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="181" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="189"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2764,10 +2764,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="177"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2775,10 +2775,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="177"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2786,10 +2786,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="177"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2801,10 +2801,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31">
         <v>5980</v>
@@ -2831,10 +2831,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="158"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2873,21 +2873,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="175"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2897,10 +2897,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="179"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2910,10 +2910,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2936,10 +2936,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="177"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="177"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="158"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2977,10 +2977,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="160"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="152"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3016,10 +3016,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3029,10 +3029,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="166"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3068,21 +3068,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="144"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3094,10 +3094,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3120,10 +3120,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="146"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3133,10 +3133,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="146"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="148"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="150"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3194,10 +3194,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="152"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="154"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3225,10 +3225,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="156"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3247,164 +3247,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="142"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="131" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="132" t="s">
+      <c r="E49" s="178"/>
+      <c r="F49" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="133"/>
+      <c r="G49" s="178"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="115"/>
-      <c r="B50" s="135" t="s">
+      <c r="A50" s="173"/>
+      <c r="B50" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="137"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="181"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="116"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="139"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="189"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="132" t="s">
+      <c r="C53" s="179"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="178"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="115"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="137"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="181"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="116"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="139"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="186"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="127"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="189"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117" t="s">
+      <c r="C57" s="176"/>
+      <c r="D57" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="119"/>
-      <c r="F57" s="117" t="s">
+      <c r="E57" s="176"/>
+      <c r="F57" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="119"/>
+      <c r="G57" s="176"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="115"/>
+      <c r="A58" s="173"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="121"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="192"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="115"/>
-      <c r="B59" s="129" t="s">
+      <c r="A59" s="173"/>
+      <c r="B59" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="122" t="s">
+      <c r="C59" s="184"/>
+      <c r="D59" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="124"/>
-      <c r="F59" s="123" t="s">
+      <c r="E59" s="194"/>
+      <c r="F59" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="124"/>
+      <c r="G59" s="194"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="115"/>
-      <c r="B60" s="131" t="s">
+      <c r="A60" s="173"/>
+      <c r="B60" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="117" t="s">
+      <c r="C60" s="179"/>
+      <c r="D60" s="178"/>
+      <c r="E60" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="118"/>
-      <c r="G60" s="119"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="176"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="115"/>
+      <c r="A61" s="173"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3413,121 +3413,63 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="116"/>
-      <c r="B62" s="129" t="s">
+      <c r="A62" s="174"/>
+      <c r="B62" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="122" t="s">
+      <c r="C62" s="190"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="194"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="117" t="s">
+      <c r="C63" s="196"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="118"/>
-      <c r="G63" s="119"/>
+      <c r="F63" s="196"/>
+      <c r="G63" s="176"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="115"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="192"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="116"/>
-      <c r="B65" s="122" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="122" t="s">
+      <c r="C65" s="195"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="123"/>
-      <c r="G65" s="124"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3541,12 +3483,70 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C365B414-10C0-408B-8DE7-D280DC1E9D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92992F3E-BFC1-436C-87A4-1037633D4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,11 +1789,218 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
@@ -1832,213 +2039,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="135" t="s">
+      <c r="C2" s="182"/>
+      <c r="D2" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2764,10 +2764,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="130"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2775,10 +2775,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2786,10 +2786,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="130"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2801,10 +2801,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="130"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31">
         <v>5980</v>
@@ -2831,10 +2831,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2873,21 +2873,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2897,10 +2897,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2910,10 +2910,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="130"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2936,10 +2936,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="130"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="115"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2977,10 +2977,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="147"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3016,10 +3016,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3029,10 +3029,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="155"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3068,21 +3068,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="151"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3094,10 +3094,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="151"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="151"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3120,10 +3120,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="163"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3133,10 +3133,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="163"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="167"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3194,10 +3194,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="147"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="169"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3225,10 +3225,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="171"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3247,164 +3247,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="159" t="s">
+      <c r="A48" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="142"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="175" t="s">
+      <c r="B49" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="177" t="s">
+      <c r="C49" s="119"/>
+      <c r="D49" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="179" t="s">
+      <c r="E49" s="133"/>
+      <c r="F49" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="178"/>
+      <c r="G49" s="133"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="173"/>
-      <c r="B50" s="180" t="s">
+      <c r="A50" s="115"/>
+      <c r="B50" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="181"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="137"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="174"/>
-      <c r="B51" s="183"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="186"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="139"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="187" t="s">
+      <c r="A52" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="189"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="179"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179" t="s">
+      <c r="C53" s="132"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="179"/>
-      <c r="G53" s="178"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="173"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="181"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="181"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="137"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="174"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="187" t="s">
+      <c r="A56" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="188"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="189"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="175" t="s">
+      <c r="B57" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="176"/>
-      <c r="D57" s="175" t="s">
+      <c r="C57" s="119"/>
+      <c r="D57" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="176"/>
-      <c r="F57" s="175" t="s">
+      <c r="E57" s="119"/>
+      <c r="F57" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="176"/>
+      <c r="G57" s="119"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="173"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="192"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="121"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="173"/>
-      <c r="B59" s="183" t="s">
+      <c r="A59" s="115"/>
+      <c r="B59" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="193" t="s">
+      <c r="C59" s="130"/>
+      <c r="D59" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="194"/>
-      <c r="F59" s="195" t="s">
+      <c r="E59" s="124"/>
+      <c r="F59" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="194"/>
+      <c r="G59" s="124"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="173"/>
-      <c r="B60" s="177" t="s">
+      <c r="A60" s="115"/>
+      <c r="B60" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="175" t="s">
+      <c r="C60" s="132"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="196"/>
-      <c r="G60" s="176"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="119"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="173"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3413,63 +3413,121 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="174"/>
-      <c r="B62" s="183" t="s">
+      <c r="A62" s="116"/>
+      <c r="B62" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="190"/>
-      <c r="D62" s="184"/>
-      <c r="E62" s="193" t="s">
+      <c r="C62" s="134"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="195"/>
-      <c r="G62" s="194"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="124"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="175" t="s">
+      <c r="B63" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="175" t="s">
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="196"/>
-      <c r="G63" s="176"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="119"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="173"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="197"/>
-      <c r="G64" s="192"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="174"/>
-      <c r="B65" s="193" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="193" t="s">
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="195"/>
-      <c r="G65" s="194"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3483,70 +3541,12 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92992F3E-BFC1-436C-87A4-1037633D4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44084FFC-EC70-43FE-9593-19B5D7B7CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,92 +1789,113 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1882,60 +1903,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1946,12 +1913,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,82 +1924,121 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="184" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="181" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="189"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2764,10 +2764,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="177"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2775,10 +2775,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="177"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2786,10 +2786,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="177"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2801,10 +2801,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31">
         <v>5980</v>
@@ -2831,10 +2831,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="158"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2873,21 +2873,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="175"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2897,10 +2897,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="179"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2910,10 +2910,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2936,10 +2936,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="177"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="177"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="158"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2977,10 +2977,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="160"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="152"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3016,10 +3016,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3029,10 +3029,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="166"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3068,21 +3068,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="144"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3094,10 +3094,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3120,10 +3120,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="146"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3133,10 +3133,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="146"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="148"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="150"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3194,10 +3194,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="152"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="154"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3225,10 +3225,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="156"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3247,164 +3247,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="142"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="131" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="132" t="s">
+      <c r="E49" s="178"/>
+      <c r="F49" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="133"/>
+      <c r="G49" s="178"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="115"/>
-      <c r="B50" s="135" t="s">
+      <c r="A50" s="173"/>
+      <c r="B50" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="137"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="181"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="116"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="139"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="189"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="132" t="s">
+      <c r="C53" s="179"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="178"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="115"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="137"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="181"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="116"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="139"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="186"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="127"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="189"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117" t="s">
+      <c r="C57" s="176"/>
+      <c r="D57" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="119"/>
-      <c r="F57" s="117" t="s">
+      <c r="E57" s="176"/>
+      <c r="F57" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="119"/>
+      <c r="G57" s="176"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="115"/>
+      <c r="A58" s="173"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="121"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="192"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="115"/>
-      <c r="B59" s="129" t="s">
+      <c r="A59" s="173"/>
+      <c r="B59" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="122" t="s">
+      <c r="C59" s="184"/>
+      <c r="D59" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="124"/>
-      <c r="F59" s="123" t="s">
+      <c r="E59" s="194"/>
+      <c r="F59" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="124"/>
+      <c r="G59" s="194"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="115"/>
-      <c r="B60" s="131" t="s">
+      <c r="A60" s="173"/>
+      <c r="B60" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="117" t="s">
+      <c r="C60" s="179"/>
+      <c r="D60" s="178"/>
+      <c r="E60" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="118"/>
-      <c r="G60" s="119"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="176"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="115"/>
+      <c r="A61" s="173"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3413,121 +3413,63 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="116"/>
-      <c r="B62" s="129" t="s">
+      <c r="A62" s="174"/>
+      <c r="B62" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="122" t="s">
+      <c r="C62" s="190"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="194"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="117" t="s">
+      <c r="C63" s="196"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="118"/>
-      <c r="G63" s="119"/>
+      <c r="F63" s="196"/>
+      <c r="G63" s="176"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="115"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="192"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="116"/>
-      <c r="B65" s="122" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="122" t="s">
+      <c r="C65" s="195"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="123"/>
-      <c r="G65" s="124"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3541,12 +3483,70 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44084FFC-EC70-43FE-9593-19B5D7B7CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D0DDD4-D8D3-4DAE-BEC2-7D9A61645916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,11 +1789,218 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="2"/>
@@ -1832,213 +2039,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="135" t="s">
+      <c r="C2" s="182"/>
+      <c r="D2" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="180"/>
+      <c r="D4" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="118" t="s">
+      <c r="D7" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="189"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="A8" s="190"/>
+      <c r="B8" s="191"/>
+      <c r="C8" s="192"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2764,10 +2764,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="130"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2775,10 +2775,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="130"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2786,10 +2786,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="130"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2801,10 +2801,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="130"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="130"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31">
         <v>5980</v>
@@ -2831,10 +2831,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="115"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="168"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2873,21 +2873,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="141"/>
+      <c r="B20" s="175"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2897,10 +2897,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="142" t="s">
+      <c r="A21" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="143"/>
+      <c r="B21" s="179"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2910,10 +2910,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="130"/>
+      <c r="B22" s="177"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="129" t="s">
+      <c r="A23" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="130"/>
+      <c r="B23" s="177"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2936,10 +2936,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="176" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="130"/>
+      <c r="B24" s="177"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="129" t="s">
+      <c r="A25" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="130"/>
+      <c r="B25" s="177"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="115"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2977,10 +2977,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="144" t="s">
+      <c r="A27" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="145"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="147"/>
+      <c r="B28" s="152"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="149"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3016,10 +3016,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="152" t="s">
+      <c r="A30" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="153"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3029,10 +3029,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="154" t="s">
+      <c r="A31" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="155"/>
+      <c r="B31" s="166"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="168"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3068,21 +3068,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="169" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="171"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="151"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3094,10 +3094,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="151"/>
+      <c r="B36" s="144"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="150" t="s">
+      <c r="A37" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="151"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3120,10 +3120,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="163"/>
+      <c r="B38" s="146"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3133,10 +3133,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="162" t="s">
+      <c r="A39" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="163"/>
+      <c r="B39" s="146"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="166" t="s">
+      <c r="A41" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="167"/>
+      <c r="B41" s="150"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3194,10 +3194,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="147"/>
+      <c r="B44" s="152"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="169"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3225,10 +3225,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="170" t="s">
+      <c r="A46" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="171"/>
+      <c r="B46" s="156"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3247,164 +3247,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="159" t="s">
+      <c r="A48" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="161"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="142"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="175" t="s">
+      <c r="B49" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="176"/>
-      <c r="D49" s="177" t="s">
+      <c r="C49" s="119"/>
+      <c r="D49" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="178"/>
-      <c r="F49" s="179" t="s">
+      <c r="E49" s="133"/>
+      <c r="F49" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="178"/>
+      <c r="G49" s="133"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="173"/>
-      <c r="B50" s="180" t="s">
+      <c r="A50" s="115"/>
+      <c r="B50" s="135" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="181"/>
-      <c r="D50" s="180"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="181"/>
+      <c r="C50" s="137"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="137"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="174"/>
-      <c r="B51" s="183"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="184"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="186"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="130"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="139"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="187" t="s">
+      <c r="A52" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="189"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="179"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="179" t="s">
+      <c r="C53" s="132"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="179"/>
-      <c r="G53" s="178"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="173"/>
-      <c r="B54" s="180"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="181"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="182"/>
-      <c r="G54" s="181"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="137"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="174"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="184"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="139"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="187" t="s">
+      <c r="A56" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="188"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="189"/>
+      <c r="B56" s="126"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="172" t="s">
+      <c r="A57" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="175" t="s">
+      <c r="B57" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="176"/>
-      <c r="D57" s="175" t="s">
+      <c r="C57" s="119"/>
+      <c r="D57" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="176"/>
-      <c r="F57" s="175" t="s">
+      <c r="E57" s="119"/>
+      <c r="F57" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="176"/>
+      <c r="G57" s="119"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="173"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="191"/>
-      <c r="E58" s="192"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="121"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="173"/>
-      <c r="B59" s="183" t="s">
+      <c r="A59" s="115"/>
+      <c r="B59" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="184"/>
-      <c r="D59" s="193" t="s">
+      <c r="C59" s="130"/>
+      <c r="D59" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="194"/>
-      <c r="F59" s="195" t="s">
+      <c r="E59" s="124"/>
+      <c r="F59" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="194"/>
+      <c r="G59" s="124"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="173"/>
-      <c r="B60" s="177" t="s">
+      <c r="A60" s="115"/>
+      <c r="B60" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="179"/>
-      <c r="D60" s="178"/>
-      <c r="E60" s="175" t="s">
+      <c r="C60" s="132"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="196"/>
-      <c r="G60" s="176"/>
+      <c r="F60" s="118"/>
+      <c r="G60" s="119"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="173"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3413,63 +3413,121 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="174"/>
-      <c r="B62" s="183" t="s">
+      <c r="A62" s="116"/>
+      <c r="B62" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="190"/>
-      <c r="D62" s="184"/>
-      <c r="E62" s="193" t="s">
+      <c r="C62" s="134"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="195"/>
-      <c r="G62" s="194"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="124"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="172" t="s">
+      <c r="A63" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="175" t="s">
+      <c r="B63" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="175" t="s">
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="196"/>
-      <c r="G63" s="176"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="119"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="173"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="197"/>
-      <c r="G64" s="192"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="121"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="174"/>
-      <c r="B65" s="193" t="s">
+      <c r="A65" s="116"/>
+      <c r="B65" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="195"/>
-      <c r="D65" s="194"/>
-      <c r="E65" s="193" t="s">
+      <c r="C65" s="123"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="195"/>
-      <c r="G65" s="194"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3483,70 +3541,12 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92992F3E-BFC1-436C-87A4-1037633D4AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CAE1A48-4A9B-4505-92F5-9C70F37D26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
@@ -1789,92 +1789,113 @@
     <xf numFmtId="3" fontId="15" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1882,60 +1903,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1946,12 +1913,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1963,82 +1924,121 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="4" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -2637,55 +2637,55 @@
       <c r="A1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.45">
       <c r="A2" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="182"/>
-      <c r="D2" s="184" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="182"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="181" t="s">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="84"/>
@@ -2710,22 +2710,22 @@
       <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="186"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="77"/>
-      <c r="D7" s="187" t="s">
+      <c r="D7" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="189"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="190"/>
-      <c r="B8" s="191"/>
-      <c r="C8" s="192"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="76" t="s">
         <v>58</v>
       </c>
@@ -2738,21 +2738,21 @@
       <c r="G8" s="107"/>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="72"/>
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="71"/>
       <c r="D10" s="113">
         <v>0</v>
@@ -2764,10 +2764,10 @@
       <c r="G10" s="67"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="177"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="69"/>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
@@ -2775,10 +2775,10 @@
       <c r="G11" s="67"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="177"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="69"/>
       <c r="D12" s="30"/>
       <c r="E12" s="30"/>
@@ -2786,10 +2786,10 @@
       <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="176" t="s">
+      <c r="A13" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="177"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="66"/>
       <c r="D13" s="30">
         <v>0</v>
@@ -2801,10 +2801,10 @@
       <c r="G13" s="67"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="176" t="s">
+      <c r="A14" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="177"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="68"/>
       <c r="D14" s="31">
         <v>0</v>
@@ -2816,10 +2816,10 @@
       <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="177"/>
+      <c r="B15" s="130"/>
       <c r="C15" s="68"/>
       <c r="D15" s="31">
         <v>5980</v>
@@ -2831,10 +2831,10 @@
       <c r="G15" s="64"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="158"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="65" t="s">
         <v>40</v>
       </c>
@@ -2844,10 +2844,10 @@
       <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="167" t="s">
+      <c r="A17" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="63"/>
       <c r="D17" s="62">
         <f>D16+D15+D14+D13+D12+D11+D10</f>
@@ -2873,21 +2873,21 @@
       <c r="G18" s="108"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="57"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="92"/>
     </row>
     <row r="20" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="175"/>
+      <c r="B20" s="141"/>
       <c r="C20" s="56"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
@@ -2897,10 +2897,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="178" t="s">
+      <c r="A21" s="142" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="179"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="55"/>
       <c r="D21" s="30"/>
       <c r="E21" s="54"/>
@@ -2910,10 +2910,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="177"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="86"/>
       <c r="D22" s="30"/>
       <c r="E22" s="54"/>
@@ -2923,10 +2923,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="177"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="53"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
@@ -2936,10 +2936,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="177"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="53"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
@@ -2949,10 +2949,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="177"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="104" t="s">
         <v>76</v>
       </c>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="158"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="52"/>
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
@@ -2977,10 +2977,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="160"/>
+      <c r="B27" s="145"/>
       <c r="C27" s="39"/>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="151" t="s">
+      <c r="A28" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="152"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="50"/>
       <c r="D28" s="49"/>
       <c r="E28" s="48"/>
@@ -3003,10 +3003,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="162"/>
+      <c r="B29" s="149"/>
       <c r="C29" s="47"/>
       <c r="D29" s="46"/>
       <c r="E29" s="45"/>
@@ -3016,10 +3016,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="164"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="44"/>
       <c r="D30" s="43"/>
       <c r="E30" s="42"/>
@@ -3029,10 +3029,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="165" t="s">
+      <c r="A31" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="166"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="41" t="s">
         <v>40</v>
       </c>
@@ -3046,10 +3046,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="167" t="s">
+      <c r="A32" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="168"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="39"/>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -3068,21 +3068,21 @@
       <c r="G33" s="109"/>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="171"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="158"/>
       <c r="D34" s="36"/>
       <c r="E34" s="35"/>
       <c r="F34" s="34"/>
       <c r="G34" s="100"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="144"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="33"/>
       <c r="D35" s="87" t="s">
         <v>75</v>
@@ -3094,10 +3094,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="144"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="33"/>
       <c r="D36" s="31"/>
       <c r="E36" s="30"/>
@@ -3107,10 +3107,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="144"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="33"/>
       <c r="D37" s="31"/>
       <c r="E37" s="30"/>
@@ -3120,10 +3120,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="146"/>
+      <c r="B38" s="163"/>
       <c r="C38" s="32"/>
       <c r="D38" s="31"/>
       <c r="E38" s="30"/>
@@ -3133,10 +3133,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="146"/>
+      <c r="B39" s="163"/>
       <c r="C39" s="32" t="s">
         <v>32</v>
       </c>
@@ -3148,10 +3148,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="147" t="s">
+      <c r="A40" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="148"/>
+      <c r="B40" s="165"/>
       <c r="C40" s="29"/>
       <c r="D40" s="28"/>
       <c r="E40" s="19"/>
@@ -3161,10 +3161,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="150"/>
+      <c r="B41" s="167"/>
       <c r="C41" s="27"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25"/>
@@ -3194,10 +3194,10 @@
       <c r="G43" s="111"/>
     </row>
     <row r="44" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="151" t="s">
+      <c r="A44" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="152"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="22">
         <v>2</v>
       </c>
@@ -3209,10 +3209,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="153" t="s">
+      <c r="A45" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="154"/>
+      <c r="B45" s="169"/>
       <c r="C45" s="20">
         <f>C44-1</f>
         <v>1</v>
@@ -3225,10 +3225,10 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="170" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="156"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -3247,164 +3247,164 @@
       <c r="G47" s="112"/>
     </row>
     <row r="48" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="140" t="s">
+      <c r="A48" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="142"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="160"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="161"/>
     </row>
     <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="114" t="s">
+      <c r="A49" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="117" t="s">
+      <c r="B49" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="119"/>
-      <c r="D49" s="131" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="132" t="s">
+      <c r="E49" s="178"/>
+      <c r="F49" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="133"/>
+      <c r="G49" s="178"/>
     </row>
     <row r="50" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="115"/>
-      <c r="B50" s="135" t="s">
+      <c r="A50" s="173"/>
+      <c r="B50" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="137"/>
-      <c r="D50" s="135"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="137"/>
+      <c r="C50" s="181"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="181"/>
     </row>
     <row r="51" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="116"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="139"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="183"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="183"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="186"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="125" t="s">
+      <c r="A52" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="126"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="189"/>
     </row>
     <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="114" t="s">
+      <c r="A53" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="131" t="s">
+      <c r="B53" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="132"/>
-      <c r="D53" s="133"/>
-      <c r="E53" s="132" t="s">
+      <c r="C53" s="179"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
+      <c r="F53" s="179"/>
+      <c r="G53" s="178"/>
     </row>
     <row r="54" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="115"/>
-      <c r="B54" s="135"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="137"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="137"/>
+      <c r="A54" s="173"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="181"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="182"/>
+      <c r="G54" s="181"/>
     </row>
     <row r="55" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="116"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="139"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="190"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="185"/>
+      <c r="G55" s="186"/>
     </row>
     <row r="56" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="126"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="127"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="189"/>
     </row>
     <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="172" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="117" t="s">
+      <c r="B57" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117" t="s">
+      <c r="C57" s="176"/>
+      <c r="D57" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="E57" s="119"/>
-      <c r="F57" s="117" t="s">
+      <c r="E57" s="176"/>
+      <c r="F57" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="119"/>
+      <c r="G57" s="176"/>
     </row>
     <row r="58" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="115"/>
+      <c r="A58" s="173"/>
       <c r="B58" s="13"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="128"/>
-      <c r="E58" s="121"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="192"/>
       <c r="F58" s="12"/>
       <c r="G58" s="11"/>
     </row>
     <row r="59" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="115"/>
-      <c r="B59" s="129" t="s">
+      <c r="A59" s="173"/>
+      <c r="B59" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="122" t="s">
+      <c r="C59" s="184"/>
+      <c r="D59" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="124"/>
-      <c r="F59" s="123" t="s">
+      <c r="E59" s="194"/>
+      <c r="F59" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="124"/>
+      <c r="G59" s="194"/>
     </row>
     <row r="60" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="115"/>
-      <c r="B60" s="131" t="s">
+      <c r="A60" s="173"/>
+      <c r="B60" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="132"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="117" t="s">
+      <c r="C60" s="179"/>
+      <c r="D60" s="178"/>
+      <c r="E60" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="118"/>
-      <c r="G60" s="119"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="176"/>
     </row>
     <row r="61" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="115"/>
+      <c r="A61" s="173"/>
       <c r="B61" s="10"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
@@ -3413,121 +3413,63 @@
       <c r="G61" s="6"/>
     </row>
     <row r="62" spans="1:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="116"/>
-      <c r="B62" s="129" t="s">
+      <c r="A62" s="174"/>
+      <c r="B62" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="122" t="s">
+      <c r="C62" s="190"/>
+      <c r="D62" s="184"/>
+      <c r="E62" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="194"/>
     </row>
     <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="114" t="s">
+      <c r="A63" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="117" t="s">
+      <c r="C63" s="196"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="118"/>
-      <c r="G63" s="119"/>
+      <c r="F63" s="196"/>
+      <c r="G63" s="176"/>
     </row>
     <row r="64" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="115"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="192"/>
     </row>
     <row r="65" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="116"/>
-      <c r="B65" s="122" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="123"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="122" t="s">
+      <c r="C65" s="195"/>
+      <c r="D65" s="194"/>
+      <c r="E65" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="F65" s="123"/>
-      <c r="G65" s="124"/>
+      <c r="F65" s="195"/>
+      <c r="G65" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:G3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A52:G52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B57:C57"/>
@@ -3541,12 +3483,70 @@
     <mergeCell ref="E60:G60"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:G3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.21" bottom="0.17" header="0.3" footer="0.3"/>

--- a/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
+++ b/modified_files/8ee3d600-df18-11ef-b560-2b58065d044b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\Square\PDF Automater\modified_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CAE1A48-4A9B-4505-92F5-9C70F37D26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{838A9470-B6DD-4548-A66C-DDE37C5FADC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="770" yWindow="750" windowWidth="19200" windowHeight="11170" xr2:uid="{489EC8E5-F2B0-4D62-96BA-77282DF98E55}"/>
   </bookViews>
